--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_3_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_3_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1740952.401125082</v>
+        <v>1757597.520428771</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.768411118</v>
+        <v>713587.7684111173</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11813519.27205211</v>
+        <v>11813519.27205212</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>50.46697834767995</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>241.0142888776591</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>20.68712856313109</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>53.45452657854343</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -801,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -829,55 +831,55 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G5" t="n">
-        <v>43.59093260596834</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>16.53524424398009</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>99.22041616487689</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>98.74855378848305</v>
+        <v>66.75433449706937</v>
       </c>
     </row>
     <row r="9">
@@ -1212,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>110.1951815550432</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1233,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1303,46 +1305,46 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>47.74806282379132</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>47.74806282379132</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1452,16 +1454,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>109.3681045956056</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>103.2361087434493</v>
       </c>
       <c r="H12" t="n">
         <v>109.1906224126114</v>
@@ -1497,10 +1499,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9206407878966</v>
@@ -1509,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1549,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1585,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>250.8269266233511</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>73.36175976093791</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1652,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>56.06257007945281</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>95.42382038141555</v>
       </c>
     </row>
     <row r="15">
@@ -1686,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1704,7 +1706,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>54.78124283682278</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>188.3290378557308</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1768,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>115.0357396538524</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>103.3249685652703</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1853,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>117.3450705775779</v>
+        <v>118.6954547790016</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,13 +1900,13 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1920,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1932,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>87.30283807112627</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
         <v>198.8939788055617</v>
@@ -1983,13 +1985,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>200.7457815514486</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>106.9147497326711</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2044,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>96.06064116356407</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>49.74898662285606</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>126.7060037019501</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>109.3681045956059</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,19 +2213,19 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>157.7420643081728</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2242,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>33.64439241526523</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>99.78974769572879</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2333,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>187.7594695105699</v>
+        <v>104.1189927826354</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>140.979167903347</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2402,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2409,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
-        <v>75.88546014257555</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2448,7 +2450,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2460,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>8.346463858805309</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>98.68313739545464</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>98.68313739545462</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2561,19 +2563,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="G26" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>180.9483946786628</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>74.99539127537022</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2634,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>7.425224531301852</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,16 +2645,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
@@ -2694,13 +2696,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>160.8000090393871</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>106.914749732671</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2755,16 +2757,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>42.05930342856824</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2804,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>71.61261845677504</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>368.6435848146464</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,7 +2873,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>113.4883178883721</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
         <v>225.9206407878966</v>
@@ -2937,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>46.57473665873888</v>
       </c>
     </row>
     <row r="31">
@@ -2950,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>38.97640474817491</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>117.3450705775779</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
         <v>195.5929138346465</v>
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>196.7078839772079</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>63.24835668046682</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>28.8366202606</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3244,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>73.3617597609376</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>106.914749732671</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>82.33652086926998</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>158.4267777054075</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3354,10 +3356,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>17.69756609912348</v>
       </c>
       <c r="H36" t="n">
         <v>109.1906224126114</v>
@@ -3393,7 +3395,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>8.346463858805084</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3424,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>106.0890042129125</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>9.637108967925595</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>70.62611983656755</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>220.3408895985028</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3582,22 +3584,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>78.54202280713804</v>
@@ -3627,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>48.98427584501901</v>
+        <v>14.04500123521624</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>39.1947906270704</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3743,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>114.7088429329598</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>141.6396260835076</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3828,13 +3830,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>25.37527508885681</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>78.54202280713804</v>
@@ -3879,7 +3881,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>241.1916682690039</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>73.3617597609376</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3916,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>103.3249685652703</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>44.4102132958652</v>
+        <v>214.3903899774179</v>
       </c>
       <c r="G44" t="n">
         <v>405.7415719969023</v>
@@ -3995,7 +3997,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4056,25 +4058,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>6.71925357285062</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,22 +4106,22 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>8.346463858805084</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>39.19479062707041</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>73.36175976093789</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X2" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>473.9875657500345</v>
+        <v>293.0313262305118</v>
       </c>
       <c r="C3" t="n">
-        <v>473.9875657500345</v>
+        <v>293.0313262305118</v>
       </c>
       <c r="D3" t="n">
-        <v>325.0531560887832</v>
+        <v>293.0313262305118</v>
       </c>
       <c r="E3" t="n">
-        <v>165.8157010833278</v>
+        <v>293.0313262305118</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>910.0626842191782</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>910.0626842191782</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>681.8390659555673</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V3" t="n">
-        <v>681.8390659555673</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W3" t="n">
-        <v>681.8390659555673</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="X3" t="n">
-        <v>473.9875657500345</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="Y3" t="n">
-        <v>473.9875657500345</v>
+        <v>461.2466632505798</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
         <v>19.28114311021272</v>
@@ -4525,13 +4527,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>325.7766548071333</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C5" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>82.32787816303323</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>82.32787816303323</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>75.38237741382976</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>325.7766548071333</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>35.98341002332393</v>
       </c>
       <c r="C6" t="n">
         <v>19.28114311021272</v>
@@ -4650,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>690.4171683705204</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>462.1935501069094</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V6" t="n">
-        <v>227.0414418751666</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W6" t="n">
-        <v>227.0414418751666</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>35.98341002332393</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>35.98341002332393</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
         <v>19.28114311021272</v>
@@ -4829,22 +4831,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>366.1018663125844</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V8" t="n">
-        <v>366.1018663125844</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W8" t="n">
-        <v>366.1018663125844</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X8" t="n">
-        <v>366.1018663125844</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y8" t="n">
         <v>266.3558523848238</v>
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>426.8125075943781</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>315.5042433973647</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,10 +4889,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
         <v>473.4149733950735</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>298.4948343740486</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W9" t="n">
-        <v>55.04605772994853</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X9" t="n">
-        <v>55.04605772994853</v>
+        <v>426.8125075943781</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>426.8125075943781</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1574.735921498931</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C11" t="n">
-        <v>1574.735921498931</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D11" t="n">
         <v>1574.735921498931</v>
@@ -5039,7 +5041,7 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K11" t="n">
         <v>247.3580469011318</v>
@@ -5063,28 +5065,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1574.735921498931</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S11" t="n">
-        <v>1574.735921498931</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T11" t="n">
-        <v>1574.735921498931</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U11" t="n">
-        <v>1574.735921498931</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V11" t="n">
-        <v>1574.735921498931</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W11" t="n">
-        <v>1574.735921498931</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X11" t="n">
-        <v>1574.735921498931</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y11" t="n">
-        <v>1574.735921498931</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>776.7454794694102</v>
+        <v>475.3015677070628</v>
       </c>
       <c r="C12" t="n">
-        <v>776.7454794694102</v>
+        <v>475.3015677070628</v>
       </c>
       <c r="D12" t="n">
-        <v>666.272646544556</v>
+        <v>326.3671580458115</v>
       </c>
       <c r="E12" t="n">
-        <v>507.0351915391004</v>
+        <v>326.3671580458115</v>
       </c>
       <c r="F12" t="n">
-        <v>360.5006335659854</v>
+        <v>326.3671580458115</v>
       </c>
       <c r="G12" t="n">
         <v>222.0882603251556</v>
@@ -5121,22 +5123,22 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K12" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M12" t="n">
-        <v>758.3581127497702</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N12" t="n">
-        <v>1160.042269026703</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="O12" t="n">
-        <v>1483.055776201262</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q12" t="n">
         <v>1622.966287987609</v>
@@ -5145,25 +5147,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S12" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T12" t="n">
-        <v>1173.163483952</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U12" t="n">
-        <v>944.9608164894781</v>
+        <v>1313.366060425819</v>
       </c>
       <c r="V12" t="n">
-        <v>944.9608164894781</v>
+        <v>1313.366060425819</v>
       </c>
       <c r="W12" t="n">
-        <v>944.9608164894781</v>
+        <v>1059.128703697618</v>
       </c>
       <c r="X12" t="n">
-        <v>944.9608164894781</v>
+        <v>851.2772034920847</v>
       </c>
       <c r="Y12" t="n">
-        <v>944.9608164894781</v>
+        <v>643.5169047271309</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J13" t="n">
         <v>32.45932575975218</v>
@@ -5233,16 +5235,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V13" t="n">
-        <v>107.8860696601711</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="W13" t="n">
-        <v>107.8860696601711</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="X13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32.45932575975218</v>
+        <v>787.2100952984081</v>
       </c>
       <c r="C14" t="n">
-        <v>32.45932575975218</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="D14" t="n">
-        <v>32.45932575975218</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E14" t="n">
         <v>32.45932575975218</v>
@@ -5300,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1566.337429321495</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S14" t="n">
-        <v>1566.337429321495</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T14" t="n">
-        <v>1343.593509702263</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U14" t="n">
-        <v>1089.756626634517</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V14" t="n">
-        <v>758.6937392909463</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W14" t="n">
-        <v>405.9250840208321</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X14" t="n">
-        <v>32.45932575975218</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="Y14" t="n">
-        <v>32.45932575975218</v>
+        <v>1173.80993536253</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>681.4882208202274</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="C15" t="n">
-        <v>507.0351915391004</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="D15" t="n">
-        <v>507.0351915391004</v>
+        <v>642.2718586957526</v>
       </c>
       <c r="E15" t="n">
-        <v>507.0351915391004</v>
+        <v>483.0344036902971</v>
       </c>
       <c r="F15" t="n">
-        <v>360.5006335659854</v>
+        <v>336.4998457171821</v>
       </c>
       <c r="G15" t="n">
-        <v>222.0882603251556</v>
+        <v>198.0874724763523</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>87.7939144838156</v>
       </c>
       <c r="I15" t="n">
         <v>32.45932575975218</v>
@@ -5361,46 +5363,46 @@
         <v>236.9655055809357</v>
       </c>
       <c r="L15" t="n">
-        <v>236.9655055809357</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M15" t="n">
-        <v>636.3836421851986</v>
+        <v>869.8026208059055</v>
       </c>
       <c r="N15" t="n">
-        <v>1038.067798462132</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="O15" t="n">
-        <v>1361.08130563669</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P15" t="n">
-        <v>1603.325054840697</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1541.568727888341</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T15" t="n">
-        <v>1541.568727888341</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U15" t="n">
-        <v>1541.568727888341</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V15" t="n">
-        <v>1351.337376518916</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W15" t="n">
-        <v>1097.100019790714</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="X15" t="n">
-        <v>889.2485195851814</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="Y15" t="n">
-        <v>681.4882208202274</v>
+        <v>791.2062683570039</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D16" t="n">
-        <v>180.3724193421453</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975218</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975218</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J16" t="n">
         <v>32.45932575975218</v>
@@ -5455,31 +5457,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>150.9897000805379</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="C17" t="n">
-        <v>150.9897000805379</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="D17" t="n">
-        <v>150.9897000805379</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="E17" t="n">
-        <v>150.9897000805379</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="F17" t="n">
-        <v>32.45932575975218</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="G17" t="n">
-        <v>32.45932575975218</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H17" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975218</v>
@@ -5516,13 +5518,13 @@
         <v>70.13987180521505</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
         <v>519.4894913528324</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5546,19 +5548,19 @@
         <v>1088.658125761969</v>
       </c>
       <c r="U17" t="n">
-        <v>834.8212426942227</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V17" t="n">
-        <v>503.7583553506521</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="W17" t="n">
-        <v>150.9897000805379</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="X17" t="n">
-        <v>150.9897000805379</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="Y17" t="n">
-        <v>150.9897000805379</v>
+        <v>1088.658125761969</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>32.45932575975218</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="C18" t="n">
-        <v>32.45932575975218</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="D18" t="n">
-        <v>32.45932575975218</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="E18" t="n">
-        <v>32.45932575975218</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F18" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G18" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H18" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I18" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K18" t="n">
-        <v>91.88297124942886</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L18" t="n">
-        <v>389.614726231092</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="M18" t="n">
-        <v>789.032862835355</v>
+        <v>636.3836421851986</v>
       </c>
       <c r="N18" t="n">
-        <v>1190.717019112288</v>
+        <v>1038.067798462132</v>
       </c>
       <c r="O18" t="n">
-        <v>1513.730526286846</v>
+        <v>1361.08130563669</v>
       </c>
       <c r="P18" t="n">
-        <v>1513.730526286846</v>
+        <v>1603.325054840697</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S18" t="n">
-        <v>1534.78160306728</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T18" t="n">
-        <v>1333.878594172773</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U18" t="n">
-        <v>1105.675926710251</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V18" t="n">
-        <v>870.5238184785085</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W18" t="n">
-        <v>616.2864617503069</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="X18" t="n">
-        <v>408.4349615447741</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="Y18" t="n">
-        <v>200.6746627798202</v>
+        <v>507.0351915391004</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
       <c r="H19" t="n">
         <v>32.45932575975218</v>
@@ -5692,31 +5694,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>401.4218427001639</v>
+        <v>607.9036081666529</v>
       </c>
       <c r="C20" t="n">
-        <v>32.45932575975218</v>
+        <v>607.9036081666529</v>
       </c>
       <c r="D20" t="n">
-        <v>32.45932575975218</v>
+        <v>607.9036081666529</v>
       </c>
       <c r="E20" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F20" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5774,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1508.970645214177</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S20" t="n">
-        <v>1458.719143574929</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T20" t="n">
-        <v>1458.719143574929</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U20" t="n">
-        <v>1458.719143574929</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V20" t="n">
-        <v>1127.656256231358</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="W20" t="n">
-        <v>774.8876009612438</v>
+        <v>735.889470491855</v>
       </c>
       <c r="X20" t="n">
-        <v>401.4218427001639</v>
+        <v>607.9036081666529</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.4218427001639</v>
+        <v>607.9036081666529</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>289.2874417254039</v>
+        <v>776.7454794694104</v>
       </c>
       <c r="C21" t="n">
-        <v>289.2874417254039</v>
+        <v>776.7454794694104</v>
       </c>
       <c r="D21" t="n">
-        <v>289.2874417254039</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E21" t="n">
-        <v>289.2874417254039</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F21" t="n">
-        <v>142.7528837522889</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G21" t="n">
-        <v>142.7528837522889</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K21" t="n">
-        <v>208.2166101768439</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L21" t="n">
-        <v>505.948365158507</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M21" t="n">
-        <v>546.7891136313474</v>
+        <v>656.0248753321104</v>
       </c>
       <c r="N21" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O21" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P21" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
@@ -5859,22 +5861,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T21" t="n">
-        <v>1214.731074353403</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U21" t="n">
-        <v>986.5284068908811</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V21" t="n">
-        <v>751.3762986591385</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="W21" t="n">
-        <v>497.1389419309368</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="X21" t="n">
-        <v>289.2874417254039</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="Y21" t="n">
-        <v>289.2874417254039</v>
+        <v>944.9608164894784</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C22" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D22" t="n">
-        <v>1588.982053224715</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E22" t="n">
-        <v>1441.068959642322</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K22" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L22" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M22" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N22" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O22" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X22" t="n">
-        <v>1622.966287987609</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="Y22" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>558.9237552812577</v>
+        <v>506.5925424806037</v>
       </c>
       <c r="C23" t="n">
-        <v>558.9237552812577</v>
+        <v>137.630025540192</v>
       </c>
       <c r="D23" t="n">
-        <v>558.9237552812577</v>
+        <v>137.630025540192</v>
       </c>
       <c r="E23" t="n">
-        <v>558.9237552812577</v>
+        <v>137.630025540192</v>
       </c>
       <c r="F23" t="n">
-        <v>558.9237552812577</v>
+        <v>137.630025540192</v>
       </c>
       <c r="G23" t="n">
-        <v>558.9237552812577</v>
+        <v>137.630025540192</v>
       </c>
       <c r="H23" t="n">
-        <v>222.1153555684087</v>
+        <v>137.630025540192</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6011,28 +6013,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S23" t="n">
-        <v>1366.567445311807</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T23" t="n">
-        <v>1143.823525692574</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>889.9866426248284</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V23" t="n">
-        <v>558.9237552812577</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W23" t="n">
-        <v>558.9237552812577</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X23" t="n">
-        <v>558.9237552812577</v>
+        <v>896.7318744564154</v>
       </c>
       <c r="Y23" t="n">
-        <v>558.9237552812577</v>
+        <v>506.5925424806037</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>589.3363479614452</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C24" t="n">
-        <v>414.8833186803182</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D24" t="n">
-        <v>414.8833186803182</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E24" t="n">
-        <v>255.6458636748627</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F24" t="n">
-        <v>109.1113057017477</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G24" t="n">
-        <v>109.1113057017477</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
         <v>61.20822116384403</v>
@@ -6075,16 +6077,16 @@
         <v>358.9399761455072</v>
       </c>
       <c r="M24" t="n">
-        <v>656.0248753321102</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N24" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O24" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P24" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
@@ -6096,22 +6098,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T24" t="n">
-        <v>1173.163483952</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U24" t="n">
-        <v>1173.163483952</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="V24" t="n">
-        <v>1173.163483952</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="W24" t="n">
-        <v>1173.163483952</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="X24" t="n">
-        <v>965.3119837464671</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y24" t="n">
-        <v>757.5516849815133</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C25" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D25" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
@@ -6187,10 +6189,10 @@
         <v>132.1392625228377</v>
       </c>
       <c r="X25" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y25" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1547.213367507437</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="C26" t="n">
-        <v>1547.213367507437</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="D26" t="n">
-        <v>1188.947668900687</v>
+        <v>1010.863706313113</v>
       </c>
       <c r="E26" t="n">
-        <v>1188.947668900687</v>
+        <v>625.0754537148684</v>
       </c>
       <c r="F26" t="n">
-        <v>779.107697186644</v>
+        <v>215.2354820008257</v>
       </c>
       <c r="G26" t="n">
-        <v>369.2677254726013</v>
+        <v>215.2354820008257</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975218</v>
+        <v>215.2354820008257</v>
       </c>
       <c r="I26" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K26" t="n">
         <v>247.3580469011318</v>
@@ -6257,19 +6259,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U26" t="n">
-        <v>1622.966287987609</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V26" t="n">
-        <v>1622.966287987609</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="W26" t="n">
-        <v>1547.213367507437</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="X26" t="n">
-        <v>1547.213367507437</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="Y26" t="n">
-        <v>1547.213367507437</v>
+        <v>1369.129404919863</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>507.0351915391004</v>
+        <v>39.95955255904698</v>
       </c>
       <c r="C27" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D27" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E27" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F27" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G27" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H27" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975218</v>
@@ -6306,22 +6308,22 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K27" t="n">
-        <v>236.9655055809357</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L27" t="n">
-        <v>256.6067387278473</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M27" t="n">
-        <v>656.0248753321102</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N27" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O27" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P27" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
@@ -6330,25 +6332,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S27" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T27" t="n">
-        <v>1340.665718993834</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U27" t="n">
-        <v>1112.463051531312</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V27" t="n">
-        <v>877.3109432995698</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W27" t="n">
-        <v>714.8866917446333</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X27" t="n">
-        <v>507.0351915391004</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="Y27" t="n">
-        <v>507.0351915391004</v>
+        <v>39.95955255904698</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K28" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L28" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M28" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N28" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O28" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.966287987609</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.966287987609</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.966287987609</v>
+        <v>74.94347063709384</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y28" t="n">
-        <v>1402.173708844079</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>811.2618144142066</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C29" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D29" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E29" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F29" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G29" t="n">
         <v>32.45932575975218</v>
@@ -6458,19 +6460,19 @@
         <v>32.45932575975218</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975204</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521491</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6485,28 +6487,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S29" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T29" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U29" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V29" t="n">
-        <v>1550.630309748442</v>
+        <v>757.595238418398</v>
       </c>
       <c r="W29" t="n">
-        <v>1197.861654478328</v>
+        <v>404.8265831482839</v>
       </c>
       <c r="X29" t="n">
-        <v>1197.861654478328</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y29" t="n">
-        <v>1197.861654478328</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>321.5470195745884</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C30" t="n">
-        <v>147.0939902934614</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D30" t="n">
-        <v>147.0939902934614</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E30" t="n">
-        <v>147.0939902934614</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F30" t="n">
-        <v>147.0939902934614</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G30" t="n">
         <v>32.45932575975218</v>
@@ -6540,52 +6542,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K30" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L30" t="n">
-        <v>147.3709770270845</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M30" t="n">
-        <v>546.7891136313474</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N30" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O30" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P30" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S30" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T30" t="n">
-        <v>1622.966287987609</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U30" t="n">
-        <v>1394.763620525087</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V30" t="n">
-        <v>1159.611512293345</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W30" t="n">
-        <v>905.3741555651432</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X30" t="n">
-        <v>697.5226553596103</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="Y30" t="n">
-        <v>489.7623565946564</v>
+        <v>200.6746627798202</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C31" t="n">
         <v>32.45932575975218</v>
@@ -6646,25 +6648,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S31" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="T31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W31" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X31" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y31" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="32">
@@ -6698,16 +6700,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K32" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6722,28 +6724,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S32" t="n">
-        <v>1425.397688154633</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T32" t="n">
-        <v>1202.653768535401</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U32" t="n">
-        <v>948.8168854676546</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V32" t="n">
-        <v>617.753998124084</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W32" t="n">
-        <v>419.059165823874</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="X32" t="n">
-        <v>419.059165823874</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="Y32" t="n">
-        <v>419.059165823874</v>
+        <v>150.9897000805379</v>
       </c>
     </row>
     <row r="33">
@@ -6753,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>730.1598755147245</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C33" t="n">
-        <v>730.1598755147245</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D33" t="n">
         <v>666.272646544556</v>
@@ -6777,52 +6779,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J33" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K33" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L33" t="n">
-        <v>534.6972605625989</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M33" t="n">
-        <v>934.1153971668618</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N33" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O33" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T33" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U33" t="n">
-        <v>1173.163483952</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="V33" t="n">
-        <v>938.0113757202573</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="W33" t="n">
-        <v>938.0113757202573</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="X33" t="n">
-        <v>730.1598755147245</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y33" t="n">
-        <v>730.1598755147245</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="34">
@@ -6892,13 +6894,13 @@
         <v>1622.966287987609</v>
       </c>
       <c r="V34" t="n">
-        <v>1368.281799781722</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W34" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X34" t="n">
-        <v>1294.179012144411</v>
+        <v>1514.971591287941</v>
       </c>
       <c r="Y34" t="n">
         <v>1294.179012144411</v>
@@ -6911,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>779.107697186644</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="C35" t="n">
-        <v>779.107697186644</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="D35" t="n">
-        <v>779.107697186644</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="E35" t="n">
-        <v>779.107697186644</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="F35" t="n">
-        <v>779.107697186644</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="G35" t="n">
-        <v>369.2677254726013</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H35" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L35" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6959,28 +6961,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1622.966287987609</v>
+        <v>1539.798085089357</v>
       </c>
       <c r="S35" t="n">
-        <v>1622.966287987609</v>
+        <v>1342.22948525638</v>
       </c>
       <c r="T35" t="n">
-        <v>1622.966287987609</v>
+        <v>1342.22948525638</v>
       </c>
       <c r="U35" t="n">
-        <v>1462.939239800329</v>
+        <v>1342.22948525638</v>
       </c>
       <c r="V35" t="n">
-        <v>1131.876352456758</v>
+        <v>1342.22948525638</v>
       </c>
       <c r="W35" t="n">
-        <v>779.107697186644</v>
+        <v>1342.22948525638</v>
       </c>
       <c r="X35" t="n">
-        <v>779.107697186644</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="Y35" t="n">
-        <v>779.107697186644</v>
+        <v>968.7637269953004</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>989.6600854869342</v>
+        <v>722.5894836660434</v>
       </c>
       <c r="C36" t="n">
-        <v>815.2070562058072</v>
+        <v>548.1364543849164</v>
       </c>
       <c r="D36" t="n">
-        <v>666.272646544556</v>
+        <v>399.2020447236652</v>
       </c>
       <c r="E36" t="n">
-        <v>507.0351915391004</v>
+        <v>239.9645897182097</v>
       </c>
       <c r="F36" t="n">
-        <v>360.5006335659854</v>
+        <v>239.9645897182097</v>
       </c>
       <c r="G36" t="n">
         <v>222.0882603251556</v>
@@ -7014,25 +7016,25 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K36" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M36" t="n">
-        <v>758.3581127497702</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N36" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O36" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
@@ -7041,25 +7043,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S36" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T36" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U36" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V36" t="n">
-        <v>1374.066492846507</v>
+        <v>1306.416619656598</v>
       </c>
       <c r="W36" t="n">
-        <v>1374.066492846507</v>
+        <v>1306.416619656598</v>
       </c>
       <c r="X36" t="n">
-        <v>1365.635721271956</v>
+        <v>1098.565119451065</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.875422507002</v>
+        <v>890.8048206861115</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>139.6199360758254</v>
+        <v>1613.231834484654</v>
       </c>
       <c r="C37" t="n">
-        <v>139.6199360758254</v>
+        <v>1444.295651556747</v>
       </c>
       <c r="D37" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E37" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G37" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H37" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I37" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J37" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L37" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M37" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N37" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O37" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S37" t="n">
-        <v>139.6199360758254</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T37" t="n">
-        <v>139.6199360758254</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U37" t="n">
-        <v>139.6199360758254</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V37" t="n">
-        <v>139.6199360758254</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W37" t="n">
-        <v>139.6199360758254</v>
+        <v>1613.231834484654</v>
       </c>
       <c r="X37" t="n">
-        <v>139.6199360758254</v>
+        <v>1613.231834484654</v>
       </c>
       <c r="Y37" t="n">
-        <v>139.6199360758254</v>
+        <v>1613.231834484654</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>472.7613576865958</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="C38" t="n">
-        <v>103.7988407461841</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="D38" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="E38" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F38" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G38" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H38" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I38" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K38" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7196,28 +7198,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T38" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U38" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V38" t="n">
-        <v>1622.966287987609</v>
+        <v>612.2546875442204</v>
       </c>
       <c r="W38" t="n">
-        <v>1622.966287987609</v>
+        <v>612.2546875442204</v>
       </c>
       <c r="X38" t="n">
-        <v>1249.500529726529</v>
+        <v>612.2546875442204</v>
       </c>
       <c r="Y38" t="n">
-        <v>859.3611977507176</v>
+        <v>222.1153555684087</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>989.6600854869342</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="C39" t="n">
-        <v>815.2070562058072</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="D39" t="n">
-        <v>666.272646544556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="E39" t="n">
-        <v>507.0351915391004</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F39" t="n">
-        <v>360.5006335659854</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G39" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H39" t="n">
         <v>111.7947023326189</v>
       </c>
       <c r="I39" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K39" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L39" t="n">
-        <v>534.6972605625989</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M39" t="n">
-        <v>934.1153971668618</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N39" t="n">
-        <v>948.4732699082806</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O39" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S39" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.966287987609</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U39" t="n">
-        <v>1622.966287987609</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V39" t="n">
-        <v>1622.966287987609</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W39" t="n">
-        <v>1573.487221477489</v>
+        <v>695.6218383231737</v>
       </c>
       <c r="X39" t="n">
-        <v>1365.635721271956</v>
+        <v>487.7703381176408</v>
       </c>
       <c r="Y39" t="n">
-        <v>1157.875422507002</v>
+        <v>280.0100393526869</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="C40" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="D40" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="E40" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="F40" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G40" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H40" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I40" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J40" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L40" t="n">
         <v>107.0302722280248</v>
@@ -7354,28 +7356,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R40" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T40" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U40" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="V40" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="W40" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="X40" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="Y40" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32.45932575975218</v>
+        <v>506.5925424806035</v>
       </c>
       <c r="C41" t="n">
-        <v>32.45932575975218</v>
+        <v>506.5925424806035</v>
       </c>
       <c r="D41" t="n">
-        <v>32.45932575975218</v>
+        <v>148.326843873853</v>
       </c>
       <c r="E41" t="n">
         <v>32.45932575975218</v>
@@ -7409,16 +7411,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7436,25 +7438,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1479.895958610329</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T41" t="n">
-        <v>1479.895958610329</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U41" t="n">
-        <v>1479.895958610329</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V41" t="n">
-        <v>1148.833071266758</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W41" t="n">
-        <v>796.0644159966438</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X41" t="n">
-        <v>422.5986577355639</v>
+        <v>896.7318744564152</v>
       </c>
       <c r="Y41" t="n">
-        <v>32.45932575975218</v>
+        <v>506.5925424806035</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>247.7198513240009</v>
+        <v>258.3292603057339</v>
       </c>
       <c r="C42" t="n">
-        <v>247.7198513240009</v>
+        <v>258.3292603057339</v>
       </c>
       <c r="D42" t="n">
-        <v>247.7198513240009</v>
+        <v>258.3292603057339</v>
       </c>
       <c r="E42" t="n">
-        <v>247.7198513240009</v>
+        <v>258.3292603057339</v>
       </c>
       <c r="F42" t="n">
-        <v>247.7198513240009</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G42" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H42" t="n">
         <v>111.7947023326189</v>
@@ -7488,13 +7490,13 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J42" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K42" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L42" t="n">
-        <v>236.9655055809357</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M42" t="n">
         <v>546.7891136313474</v>
@@ -7527,13 +7529,13 @@
         <v>709.8087082577354</v>
       </c>
       <c r="W42" t="n">
-        <v>455.5713515295337</v>
+        <v>466.1807605112667</v>
       </c>
       <c r="X42" t="n">
-        <v>247.7198513240009</v>
+        <v>258.3292603057339</v>
       </c>
       <c r="Y42" t="n">
-        <v>247.7198513240009</v>
+        <v>258.3292603057339</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1294.179012144411</v>
+        <v>1518.597632871174</v>
       </c>
       <c r="C43" t="n">
-        <v>1294.179012144411</v>
+        <v>1518.597632871174</v>
       </c>
       <c r="D43" t="n">
-        <v>1294.179012144411</v>
+        <v>1518.597632871174</v>
       </c>
       <c r="E43" t="n">
-        <v>1294.179012144411</v>
+        <v>1518.597632871174</v>
       </c>
       <c r="F43" t="n">
-        <v>1294.179012144411</v>
+        <v>1518.597632871174</v>
       </c>
       <c r="G43" t="n">
-        <v>1294.179012144411</v>
+        <v>1518.597632871174</v>
       </c>
       <c r="H43" t="n">
-        <v>1294.179012144411</v>
+        <v>1518.597632871174</v>
       </c>
       <c r="I43" t="n">
-        <v>1294.179012144411</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="J43" t="n">
         <v>1294.179012144411</v>
@@ -7597,22 +7599,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.966287987609</v>
+        <v>1518.597632871174</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.966287987609</v>
+        <v>1518.597632871174</v>
       </c>
       <c r="V43" t="n">
-        <v>1368.281799781722</v>
+        <v>1518.597632871174</v>
       </c>
       <c r="W43" t="n">
-        <v>1368.281799781722</v>
+        <v>1518.597632871174</v>
       </c>
       <c r="X43" t="n">
-        <v>1368.281799781722</v>
+        <v>1518.597632871174</v>
       </c>
       <c r="Y43" t="n">
-        <v>1368.281799781722</v>
+        <v>1518.597632871174</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1013.622528304255</v>
+        <v>995.6636466587834</v>
       </c>
       <c r="C44" t="n">
-        <v>1013.622528304255</v>
+        <v>995.6636466587834</v>
       </c>
       <c r="D44" t="n">
-        <v>1013.622528304255</v>
+        <v>995.6636466587834</v>
       </c>
       <c r="E44" t="n">
-        <v>1013.622528304255</v>
+        <v>995.6636466587834</v>
       </c>
       <c r="F44" t="n">
-        <v>968.7637269953004</v>
+        <v>779.107697186644</v>
       </c>
       <c r="G44" t="n">
-        <v>558.9237552812577</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H44" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975218</v>
@@ -7655,7 +7657,7 @@
         <v>519.4894913528325</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7676,22 +7678,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T44" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U44" t="n">
-        <v>1400.222368368377</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V44" t="n">
-        <v>1400.222368368377</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="W44" t="n">
-        <v>1400.222368368377</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="X44" t="n">
-        <v>1400.222368368377</v>
+        <v>995.6636466587834</v>
       </c>
       <c r="Y44" t="n">
-        <v>1400.222368368377</v>
+        <v>995.6636466587834</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>39.24645058081342</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C45" t="n">
-        <v>39.24645058081342</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D45" t="n">
-        <v>32.45932575975218</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E45" t="n">
-        <v>32.45932575975218</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F45" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G45" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H45" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975218</v>
@@ -7728,22 +7730,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K45" t="n">
-        <v>32.45932575975218</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L45" t="n">
-        <v>256.6067387278473</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M45" t="n">
-        <v>656.0248753321102</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N45" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O45" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
@@ -7752,25 +7754,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S45" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T45" t="n">
-        <v>1340.665718993834</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="U45" t="n">
-        <v>1112.463051531312</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="V45" t="n">
-        <v>877.3109432995698</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="W45" t="n">
-        <v>623.0735865713682</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="X45" t="n">
-        <v>415.2220863658354</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y45" t="n">
-        <v>207.4617876008815</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="C46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="D46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="E46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="F46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="G46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="H46" t="n">
         <v>32.45932575975218</v>
@@ -7831,25 +7833,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S46" t="n">
-        <v>287.1438139656391</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T46" t="n">
-        <v>287.1438139656391</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U46" t="n">
-        <v>287.1438139656391</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="V46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="W46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="X46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8298,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,13 +8537,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>368.5691090902119</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,16 +8780,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304797</v>
+        <v>390.1250211658772</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>67.58604940343855</v>
       </c>
       <c r="P12" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>70.10119885733474</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>400.7426633853975</v>
       </c>
       <c r="N15" t="n">
         <v>455.0874215304797</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>67.58604940343855</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>119.5777639440803</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>146.9565108232705</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>70.10119885733474</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9258,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>73.77211287831324</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>119.5777639440803</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>103.505681799068</v>
+        <v>362.3381572675153</v>
       </c>
       <c r="N21" t="n">
         <v>455.0874215304797</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>362.3381572675152</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304797</v>
+        <v>241.3813618149015</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L27" t="n">
-        <v>89.94082829865957</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304797</v>
+        <v>241.3813618149011</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>186.1735738748421</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>184.8055467452003</v>
       </c>
       <c r="N30" t="n">
         <v>455.0874215304797</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>63.84875129258624</v>
+        <v>380.7598033349564</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K36" t="n">
         <v>86.93262649026376</v>
@@ -10671,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>281.0382923213828</v>
       </c>
       <c r="N36" t="n">
-        <v>351.7205150479949</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>63.84875129258624</v>
+        <v>270.420650101863</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L42" t="n">
-        <v>70.10119885733474</v>
+        <v>186.1735738748421</v>
       </c>
       <c r="M42" t="n">
-        <v>375.205539958231</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>455.0874215304797</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928323</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11376,16 +11378,16 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K45" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>296.5127271079359</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>455.0874215304797</v>
+        <v>92.88803957954771</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23261,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>306.9349787968916</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.10762352190613</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
         <v>195.5929138346465</v>
@@ -23340,16 +23342,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>38.07696096903312</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>33.7921407649721</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23385,10 +23387,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23397,13 +23399,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23437,7 +23439,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V13" t="n">
-        <v>1.31071670047686</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>152.3478956280993</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>56.79311626624464</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>290.814118274638</v>
       </c>
     </row>
     <row r="15">
@@ -23574,13 +23576,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23592,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.76077997031526</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>44.47154929369447</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23656,10 +23658,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>33.57973336435992</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,13 +23670,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
-        <v>159.8772180037952</v>
+        <v>56.55224943852487</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
         <v>165.4090611368575</v>
@@ -23741,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>289.5309751641336</v>
+        <v>288.1805909627099</v>
       </c>
       <c r="G17" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,13 +23788,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23808,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23820,16 +23822,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>78.52437462028948</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23871,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>50.94920160947103</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23905,7 +23907,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H19" t="n">
-        <v>159.8772180037952</v>
+        <v>52.9624682711241</v>
       </c>
       <c r="I19" t="n">
         <v>147.5019580580808</v>
@@ -23932,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
-        <v>123.3497577082893</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
         <v>226.8162656893113</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23987,7 +23989,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>145.8439272117905</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>243.025096976519</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>38.0769609690329</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24099,19 +24101,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>41.1519144973889</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24130,13 +24132,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>114.9710806029471</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.7266695472104</v>
@@ -24190,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>118.794905656366</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24221,10 +24223,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>83.64047672793453</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
-        <v>54.61374593129955</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24288,7 +24290,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24297,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>33.30516227003581</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24336,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
         <v>225.9206407878966</v>
@@ -24348,7 +24350,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>197.4265213446722</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>47.75082525111453</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>127.0265179935825</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24449,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>1.134473744809156</v>
       </c>
       <c r="G26" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
-        <v>187.7594695105699</v>
+        <v>6.811074831907149</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,13 +24499,13 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>274.2455774420428</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24522,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>165.2832744570139</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24531,16 +24533,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24582,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>90.89497412153247</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>72.91723044926633</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24643,16 +24645,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>226.8162656893113</v>
+        <v>184.7569622607431</v>
       </c>
       <c r="U28" t="n">
         <v>286.3046124576955</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24692,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
         <v>333.4403157157206</v>
@@ -24725,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
-        <v>256.1396400133599</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>1.087515863822659</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24759,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,7 +24773,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>23.53993162004937</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
         <v>109.1906224126114</v>
@@ -24804,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24825,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>159.1079591185655</v>
       </c>
     </row>
     <row r="31">
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>128.2704163504529</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24886,10 +24888,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8162656893113</v>
+        <v>120.7272614763988</v>
       </c>
       <c r="U31" t="n">
         <v>286.3046124576955</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>265.3887710859027</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24977,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>152.5330847402051</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>84.19670888417193</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>176.9363649428775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25132,16 +25134,16 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>213.1612385756534</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>118.7949056563662</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>30.51916547642747</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
-        <v>92.87173653166087</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25242,10 +25244,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>119.330683409298</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25281,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
         <v>198.8939788055617</v>
@@ -25290,13 +25292,13 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>197.4265213446724</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25312,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>39.33204381001872</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.7266695472104</v>
@@ -25360,7 +25362,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
         <v>226.8162656893113</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>276.8858893686654</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>284.0569217841154</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25409,7 +25411,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>107.4113688716321</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25470,22 +25472,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25515,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>202.7107073159006</v>
+        <v>237.6499819257034</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25558,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>106.2262573958608</v>
       </c>
       <c r="G40" t="n">
         <v>167.7266695472104</v>
@@ -25594,16 +25596,16 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
-        <v>66.72592374140291</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25631,10 +25633,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>267.221527139302</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25676,7 +25678,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>53.95328775113899</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
         <v>220.5164804230398</v>
@@ -25685,7 +25687,7 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25716,13 +25718,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>111.6529744195646</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25767,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>10.50331489191566</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>106.4702204209997</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25804,10 +25806,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25837,13 +25839,13 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8162656893113</v>
+        <v>123.491297124041</v>
       </c>
       <c r="U43" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>362.4658324458462</v>
+        <v>192.4856557642935</v>
       </c>
       <c r="G44" t="n">
         <v>8.97193213363164</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,10 +25918,10 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25944,25 +25946,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>140.7258119917881</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,22 +25994,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>190.5475149467566</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H46" t="n">
-        <v>159.8772180037952</v>
+        <v>120.6824273767248</v>
       </c>
       <c r="I46" t="n">
         <v>147.5019580580808</v>
@@ -26071,16 +26073,16 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S46" t="n">
-        <v>146.0486391109155</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>474252.9486281901</v>
+        <v>474252.94862819</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>474252.94862819</v>
+        <v>474252.9486281899</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>474252.94862819</v>
+        <v>474252.9486281899</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>474252.9486281897</v>
+        <v>474252.94862819</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>474252.9486281897</v>
+        <v>474252.9486281899</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>474252.9486281901</v>
+        <v>474252.9486281899</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>474252.9486281899</v>
+        <v>474252.9486281901</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>474252.9486281897</v>
+        <v>474252.9486281899</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049982</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049981</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049982</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049979</v>
       </c>
       <c r="E2" t="n">
         <v>299080.4558904492</v>
       </c>
       <c r="F2" t="n">
+        <v>299080.4558904495</v>
+      </c>
+      <c r="G2" t="n">
+        <v>299080.4558904491</v>
+      </c>
+      <c r="H2" t="n">
+        <v>299080.4558904491</v>
+      </c>
+      <c r="I2" t="n">
+        <v>299080.4558904495</v>
+      </c>
+      <c r="J2" t="n">
         <v>299080.4558904493</v>
       </c>
-      <c r="G2" t="n">
-        <v>299080.4558904493</v>
-      </c>
-      <c r="H2" t="n">
-        <v>299080.4558904494</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>299080.4558904495</v>
+      </c>
+      <c r="L2" t="n">
         <v>299080.4558904491</v>
       </c>
-      <c r="J2" t="n">
-        <v>299080.4558904491</v>
-      </c>
-      <c r="K2" t="n">
-        <v>299080.4558904493</v>
-      </c>
-      <c r="L2" t="n">
-        <v>299080.4558904494</v>
-      </c>
       <c r="M2" t="n">
-        <v>299080.4558904491</v>
+        <v>299080.4558904492</v>
       </c>
       <c r="N2" t="n">
-        <v>299080.4558904493</v>
+        <v>299080.4558904492</v>
       </c>
       <c r="O2" t="n">
         <v>299080.4558904493</v>
       </c>
       <c r="P2" t="n">
-        <v>299080.4558904491</v>
+        <v>299080.4558904492</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,7 +26377,7 @@
         <v>166940.1701252467</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.261091817170383e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910621</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.6978624479</v>
+        <v>41050.69786244789</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26485,10 +26487,10 @@
         <v>27864.35291375756</v>
       </c>
       <c r="H5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="I5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="J5" t="n">
         <v>27864.35291375756</v>
@@ -26503,7 +26505,7 @@
         <v>27864.35291375756</v>
       </c>
       <c r="N5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="O5" t="n">
         <v>27864.35291375756</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>141450.74276261</v>
+        <v>141450.7427626101</v>
       </c>
       <c r="C6" t="n">
-        <v>222220.1742941578</v>
+        <v>222220.1742941577</v>
       </c>
       <c r="D6" t="n">
-        <v>222220.174294158</v>
+        <v>222220.1742941576</v>
       </c>
       <c r="E6" t="n">
-        <v>78337.7093558803</v>
+        <v>78337.70935588033</v>
       </c>
       <c r="F6" t="n">
-        <v>245277.8794811271</v>
+        <v>245277.8794811273</v>
       </c>
       <c r="G6" t="n">
-        <v>245277.8794811271</v>
+        <v>245277.8794811269</v>
       </c>
       <c r="H6" t="n">
-        <v>245277.8794811272</v>
+        <v>245277.8794811269</v>
       </c>
       <c r="I6" t="n">
-        <v>245277.8794811269</v>
+        <v>245277.8794811273</v>
       </c>
       <c r="J6" t="n">
-        <v>182217.9368820207</v>
+        <v>182217.9368820209</v>
       </c>
       <c r="K6" t="n">
-        <v>245277.8794811271</v>
+        <v>245277.8794811273</v>
       </c>
       <c r="L6" t="n">
-        <v>245277.8794811272</v>
+        <v>245277.8794811268</v>
       </c>
       <c r="M6" t="n">
-        <v>204227.181618679</v>
+        <v>204227.1816186791</v>
       </c>
       <c r="N6" t="n">
-        <v>245277.8794811271</v>
+        <v>245277.879481127</v>
       </c>
       <c r="O6" t="n">
         <v>245277.8794811271</v>
       </c>
       <c r="P6" t="n">
-        <v>245277.8794811268</v>
+        <v>245277.879481127</v>
       </c>
     </row>
   </sheetData>
@@ -26969,7 +26971,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.39075054832453e-14</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.7272831192433</v>
+        <v>164.7272831192432</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>164.7272831192433</v>
+        <v>164.7272831192432</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>304.216063273003</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>165.8617568640524</v>
@@ -27400,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27439,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>124.3820838302528</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>118.2286445252944</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27521,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27549,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27597,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>371.7118049091667</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27697,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>156.1732547443357</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>100.9443125299447</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,7 +27794,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>287.4893848675705</v>
+        <v>319.4836041589842</v>
       </c>
     </row>
     <row r="9">
@@ -27932,16 +27934,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>62.51331743327255</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27953,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>170.2754303037659</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28023,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28062,7 +28064,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I20" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L20" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N20" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32542,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H21" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K21" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
@@ -32619,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H22" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J22" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L22" t="n">
         <v>39.29566048323129</v>
@@ -32643,7 +32645,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P22" t="n">
         <v>31.96707026225442</v>
@@ -32652,16 +32654,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S22" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34708,7 +34710,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -35018,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,13 +35257,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>226.4350751681936</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35489,7 +35491,7 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
@@ -35498,16 +35500,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N12" t="n">
-        <v>405.7415719969023</v>
+        <v>340.7791716322998</v>
       </c>
       <c r="O12" t="n">
-        <v>326.276269873291</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>141.323749279139</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>177.5326105223148</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>403.4526632366292</v>
+        <v>338.4902628720268</v>
       </c>
       <c r="N15" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O15" t="n">
-        <v>326.276269873291</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
-        <v>19.8396294413249</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>38.06115762167967</v>
       </c>
       <c r="K17" t="n">
-        <v>179.0082576726431</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L17" t="n">
         <v>274.8802469209098</v>
@@ -35960,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K18" t="n">
-        <v>60.02388433300675</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L18" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>403.4526632366292</v>
@@ -35978,10 +35980,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.3391532330937</v>
+        <v>19.8396294413249</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K20" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L20" t="n">
         <v>274.8802469209098</v>
@@ -36139,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K21" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>41.25328128569732</v>
+        <v>300.0857567541446</v>
       </c>
       <c r="N21" t="n">
         <v>405.7415719969023</v>
@@ -36218,7 +36220,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M22" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P22" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>300.0857567541445</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969023</v>
+        <v>192.0355122813241</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36455,7 +36457,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K27" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>19.83962944132484</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N27" t="n">
-        <v>405.7415719969023</v>
+        <v>192.0355122813237</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
@@ -36692,7 +36694,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L30" t="n">
-        <v>116.0723750175074</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
-        <v>403.4526632366292</v>
+        <v>122.5531462318296</v>
       </c>
       <c r="N30" t="n">
         <v>405.7415719969023</v>
@@ -36929,7 +36931,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>300.7391464461244</v>
@@ -37157,7 +37159,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N33" t="n">
-        <v>14.50290175900885</v>
+        <v>331.413953801379</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
@@ -37166,7 +37168,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,10 +37393,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>403.4526632366292</v>
+        <v>218.7858918080121</v>
       </c>
       <c r="N36" t="n">
-        <v>302.3746655144175</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
@@ -37403,7 +37405,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>300.7391464461244</v>
@@ -37631,7 +37633,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
-        <v>14.50290175900885</v>
+        <v>221.0748005682856</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
@@ -37798,7 +37800,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.63987744680312</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>116.0723750175074</v>
       </c>
       <c r="M42" t="n">
-        <v>312.9531394448603</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N42" t="n">
         <v>405.7415719969023</v>
@@ -38023,7 +38025,7 @@
         <v>274.8802469209098</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6315268094071</v>
+        <v>322.6315268094069</v>
       </c>
       <c r="N44" t="n">
         <v>313.0722467132387</v>
@@ -38035,7 +38037,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680312</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L45" t="n">
-        <v>226.4115282506012</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N45" t="n">
-        <v>405.7415719969023</v>
+        <v>43.54219004597032</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>
@@ -38114,7 +38116,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_3_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_3_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1701819.998286166</v>
+        <v>1751712.774937165</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111177</v>
+        <v>713587.7684111182</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11813519.27205212</v>
+        <v>11813519.27205211</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6675639.600652594</v>
+        <v>6675639.600652596</v>
       </c>
     </row>
     <row r="11">
@@ -658,31 +658,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>232.8330857361503</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>36.50835361371226</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -755,10 +755,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>75.2377801170462</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -788,13 +788,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>24.7554325077908</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>71.01467844038824</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -949,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>66.75433449706937</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>145.5147652547678</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>160.4442220756123</v>
       </c>
     </row>
     <row r="7">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>190.3453970742847</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>10.81911860075562</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>182.4319946205765</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>24.99757380725322</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>55.65476512186416</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>25.95772523965397</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>99.78974769572881</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>38.97640474817491</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>65.82968289168539</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>405.7415719969023</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>3.838233493691464</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1691,22 +1691,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>150.9149436811929</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1745,16 +1745,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>124.5088243026986</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>39.19479062707047</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G17" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>156.3643295326804</v>
       </c>
       <c r="T17" t="n">
-        <v>65.82968289168539</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1940,10 +1940,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>16.19475982477525</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>49.75575442373815</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>219.4103988718534</v>
+        <v>39.19479062707047</v>
       </c>
       <c r="T19" t="n">
-        <v>106.0890042129126</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>26.6309204668481</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G20" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>17.95817021688007</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2171,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>4.712756608176917</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>147.3962661676069</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>122.135992742659</v>
+        <v>67.95788114053259</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>85.36839685648675</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>2.585499925539691</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
         <v>198.8939788055617</v>
@@ -2456,16 +2456,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>39.19479062707047</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>74.9336884203597</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>17.95817021688007</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2642,19 +2642,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>152.0913745889356</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>141.2209508291585</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="V28" t="n">
-        <v>180.0783550618347</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>368.6435848146464</v>
       </c>
       <c r="H29" t="n">
-        <v>257.9648699330302</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2851,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2873,16 +2873,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2924,19 +2924,19 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8451794085298</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>42.27148635091354</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>73.36175976093794</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>165.6221850809708</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>201.140578342367</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.428964559217</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3116,10 +3116,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>122.6442649790756</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>113.4883178883723</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>38.97640474817497</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>136.0197177849058</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>399.8885402891422</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3356,13 +3356,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>34.07047351344418</v>
+        <v>113.4883178883725</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>157.7727335375556</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>98.68313739545469</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>109.1332517576479</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>90.41428742703029</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3581,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>47.99252586508033</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>19.55022763754327</v>
       </c>
       <c r="S39" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
         <v>225.9206407878966</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7266695472104</v>
+        <v>145.6674229028286</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>157.7727335375556</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.6920118803607</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>307.495911508955</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>88.00880902957816</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>153.4340904004339</v>
       </c>
       <c r="U42" t="n">
         <v>225.9206407878966</v>
@@ -3884,7 +3884,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3903,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>31.46288204362234</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>106.0890042129126</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>10.19223143624703</v>
       </c>
       <c r="F44" t="n">
         <v>405.7415719969023</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>123.0479177819444</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>220.5164804230398</v>
@@ -4070,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>19.36111400867572</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,22 +4103,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.9994711122353</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.213123944113216</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>160.0903419479084</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.9655401424092</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="C2" t="n">
-        <v>953.9655401424092</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D2" t="n">
-        <v>953.9655401424092</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E2" t="n">
-        <v>953.9655401424092</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>710.516763498309</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4369,13 +4369,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>784.1002736601483</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>432.4774131586771</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C3" t="n">
-        <v>432.4774131586771</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D3" t="n">
-        <v>432.4774131586771</v>
+        <v>540.5358718529395</v>
       </c>
       <c r="E3" t="n">
-        <v>395.6002882963414</v>
+        <v>381.298416847484</v>
       </c>
       <c r="F3" t="n">
-        <v>249.0657303232264</v>
+        <v>234.763858874369</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>96.0330334569845</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4415,16 +4415,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>432.4774131586771</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>432.4774131586771</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>432.4774131586771</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X3" t="n">
-        <v>432.4774131586771</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y3" t="n">
-        <v>432.4774131586771</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4509,31 +4509,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.5825927271064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C5" t="n">
-        <v>802.5825927271064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D5" t="n">
-        <v>802.5825927271064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E5" t="n">
-        <v>802.5825927271064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>559.1338160830064</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>315.6850394389064</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
         <v>243.9530410142718</v>
@@ -4597,22 +4597,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V6" t="n">
-        <v>817.0725441421839</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W6" t="n">
-        <v>573.6237674980839</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="X6" t="n">
-        <v>365.7722672925511</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.516763498309</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>710.516763498309</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>710.516763498309</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>467.067986854209</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>223.6192102101089</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.516763498309</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>588.0815197256143</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C9" t="n">
-        <v>588.0815197256143</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D9" t="n">
-        <v>588.0815197256143</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E9" t="n">
-        <v>428.8440647201588</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F9" t="n">
-        <v>282.3095067470438</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
-        <v>143.5786813296593</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>30.2095457372386</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y9" t="n">
-        <v>756.2968567456824</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>216.7340678007386</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="C11" t="n">
-        <v>216.7340678007386</v>
+        <v>942.4395284407892</v>
       </c>
       <c r="D11" t="n">
-        <v>216.7340678007386</v>
+        <v>584.1738298340388</v>
       </c>
       <c r="E11" t="n">
-        <v>32.45932575975218</v>
+        <v>584.1738298340388</v>
       </c>
       <c r="F11" t="n">
-        <v>32.45932575975218</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="G11" t="n">
-        <v>32.45932575975218</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H11" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I11" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011315</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528321</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941452</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5077,16 +5077,16 @@
         <v>1311.402045381201</v>
       </c>
       <c r="V11" t="n">
-        <v>980.3391580376302</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="W11" t="n">
-        <v>980.3391580376302</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="X11" t="n">
-        <v>606.8733997765503</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="Y11" t="n">
-        <v>216.7340678007386</v>
+        <v>1311.402045381201</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>409.4445305789042</v>
+        <v>496.6196464651036</v>
       </c>
       <c r="C12" t="n">
-        <v>409.4445305789042</v>
+        <v>496.6196464651036</v>
       </c>
       <c r="D12" t="n">
-        <v>409.4445305789042</v>
+        <v>496.6196464651036</v>
       </c>
       <c r="E12" t="n">
-        <v>250.2070755734487</v>
+        <v>337.3821914596481</v>
       </c>
       <c r="F12" t="n">
-        <v>250.2070755734487</v>
+        <v>337.3821914596481</v>
       </c>
       <c r="G12" t="n">
-        <v>111.7947023326189</v>
+        <v>198.9698182188184</v>
       </c>
       <c r="H12" t="n">
-        <v>111.7947023326189</v>
+        <v>88.67626022628164</v>
       </c>
       <c r="I12" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K12" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L12" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M12" t="n">
-        <v>729.6092173456783</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N12" t="n">
-        <v>1131.293373622612</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O12" t="n">
-        <v>1454.30688079717</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P12" t="n">
         <v>1622.966287987609</v>
@@ -5144,28 +5144,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1515.348803403842</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T12" t="n">
-        <v>1314.445794509335</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U12" t="n">
-        <v>1314.445794509335</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V12" t="n">
-        <v>1079.293686277593</v>
+        <v>958.708503398838</v>
       </c>
       <c r="W12" t="n">
-        <v>825.056329549391</v>
+        <v>704.4711466706365</v>
       </c>
       <c r="X12" t="n">
-        <v>617.2048293438581</v>
+        <v>496.6196464651036</v>
       </c>
       <c r="Y12" t="n">
-        <v>409.4445305789042</v>
+        <v>496.6196464651036</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975218</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975218</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975218</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975218</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975218</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="G13" t="n">
         <v>32.45932575975218</v>
@@ -5229,22 +5229,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>321.8764957967128</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U13" t="n">
-        <v>321.8764957967128</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V13" t="n">
-        <v>321.8764957967128</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975218</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975218</v>
+        <v>133.2570507049328</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>800.5649960805454</v>
+        <v>1035.258356178821</v>
       </c>
       <c r="C14" t="n">
-        <v>800.5649960805454</v>
+        <v>1035.258356178821</v>
       </c>
       <c r="D14" t="n">
-        <v>442.2992974737949</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="E14" t="n">
-        <v>442.2992974737949</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="F14" t="n">
-        <v>32.45932575975218</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975218</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
         <v>519.4894913528326</v>
@@ -5302,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S14" t="n">
-        <v>1508.970645214177</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T14" t="n">
-        <v>1508.970645214177</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U14" t="n">
-        <v>1508.970645214177</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="V14" t="n">
-        <v>1177.907757870606</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="W14" t="n">
-        <v>1174.030754341625</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="X14" t="n">
-        <v>800.5649960805454</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="Y14" t="n">
-        <v>800.5649960805454</v>
+        <v>1035.258356178821</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>333.8330724727134</v>
+        <v>396.7416335465637</v>
       </c>
       <c r="C15" t="n">
-        <v>333.8330724727134</v>
+        <v>396.7416335465637</v>
       </c>
       <c r="D15" t="n">
-        <v>184.8986628114621</v>
+        <v>396.7416335465637</v>
       </c>
       <c r="E15" t="n">
-        <v>32.45932575975218</v>
+        <v>396.7416335465637</v>
       </c>
       <c r="F15" t="n">
-        <v>32.45932575975218</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G15" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H15" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K15" t="n">
-        <v>201.1187329501917</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L15" t="n">
-        <v>498.8504879318548</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M15" t="n">
-        <v>898.2686245361178</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N15" t="n">
-        <v>1299.952780813051</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O15" t="n">
-        <v>1622.966287987609</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P15" t="n">
         <v>1622.966287987609</v>
@@ -5390,19 +5390,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U15" t="n">
-        <v>944.9608164894781</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V15" t="n">
-        <v>709.8087082577354</v>
+        <v>819.1943272948333</v>
       </c>
       <c r="W15" t="n">
-        <v>709.8087082577354</v>
+        <v>564.9569705666318</v>
       </c>
       <c r="X15" t="n">
-        <v>709.8087082577354</v>
+        <v>564.9569705666318</v>
       </c>
       <c r="Y15" t="n">
-        <v>502.0484094927814</v>
+        <v>564.9569705666318</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.05002336285366</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="C16" t="n">
-        <v>72.05002336285366</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="D16" t="n">
-        <v>72.05002336285366</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="E16" t="n">
-        <v>72.05002336285366</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="F16" t="n">
-        <v>72.05002336285366</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5469,19 +5469,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U16" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V16" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W16" t="n">
-        <v>72.05002336285366</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X16" t="n">
-        <v>72.05002336285366</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="Y16" t="n">
-        <v>72.05002336285366</v>
+        <v>71.82943156598952</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>968.7637269953007</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C17" t="n">
-        <v>968.7637269953007</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D17" t="n">
-        <v>968.7637269953007</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E17" t="n">
-        <v>968.7637269953007</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F17" t="n">
-        <v>968.7637269953007</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G17" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975219</v>
@@ -5518,7 +5518,7 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L17" t="n">
         <v>519.4894913528326</v>
@@ -5542,25 +5542,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S17" t="n">
-        <v>1425.397688154633</v>
+        <v>1465.022520782882</v>
       </c>
       <c r="T17" t="n">
-        <v>1358.903058971112</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="U17" t="n">
-        <v>1358.903058971112</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="V17" t="n">
-        <v>1358.903058971112</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="W17" t="n">
-        <v>1358.903058971112</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="X17" t="n">
-        <v>1358.903058971112</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="Y17" t="n">
-        <v>968.7637269953007</v>
+        <v>852.1392691878377</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>736.4874157462907</v>
+        <v>761.3902992528161</v>
       </c>
       <c r="C18" t="n">
-        <v>562.0343864651637</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="D18" t="n">
-        <v>413.0999768039125</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E18" t="n">
-        <v>413.0999768039125</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F18" t="n">
-        <v>266.5654188307974</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="G18" t="n">
-        <v>128.1530455899676</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H18" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I18" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J18" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K18" t="n">
-        <v>236.9655055809358</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L18" t="n">
-        <v>256.6067387278474</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M18" t="n">
-        <v>656.0248753321104</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N18" t="n">
         <v>1057.709031609044</v>
@@ -5618,28 +5618,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1541.568727888341</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T18" t="n">
-        <v>1340.665718993834</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U18" t="n">
-        <v>1112.463051531313</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="V18" t="n">
-        <v>1112.463051531313</v>
+        <v>1019.408935819526</v>
       </c>
       <c r="W18" t="n">
-        <v>1112.463051531313</v>
+        <v>969.1505980177701</v>
       </c>
       <c r="X18" t="n">
-        <v>1112.463051531313</v>
+        <v>969.1505980177701</v>
       </c>
       <c r="Y18" t="n">
-        <v>904.7027527663588</v>
+        <v>761.3902992528161</v>
       </c>
     </row>
     <row r="19">
@@ -5700,10 +5700,10 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S19" t="n">
-        <v>139.6199360758255</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="T19" t="n">
-        <v>32.45932575975219</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="U19" t="n">
         <v>32.45932575975219</v>
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>995.6636466587834</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C20" t="n">
-        <v>995.6636466587834</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D20" t="n">
-        <v>995.6636466587834</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E20" t="n">
-        <v>968.7637269953004</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F20" t="n">
-        <v>968.7637269953004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G20" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H20" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I20" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L20" t="n">
         <v>519.4894913528326</v>
@@ -5785,19 +5785,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U20" t="n">
-        <v>1369.129404919863</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V20" t="n">
-        <v>1369.129404919863</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W20" t="n">
-        <v>1369.129404919863</v>
+        <v>1604.826722111973</v>
       </c>
       <c r="X20" t="n">
-        <v>995.6636466587834</v>
+        <v>1604.826722111973</v>
       </c>
       <c r="Y20" t="n">
-        <v>995.6636466587834</v>
+        <v>1214.687390136161</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>491.8592862548239</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C21" t="n">
-        <v>317.4062569736969</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D21" t="n">
-        <v>317.4062569736969</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E21" t="n">
-        <v>317.4062569736969</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F21" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G21" t="n">
         <v>32.45932575975218</v>
@@ -5843,13 +5843,13 @@
         <v>934.1153971668618</v>
       </c>
       <c r="N21" t="n">
-        <v>1335.799553443795</v>
+        <v>1190.717019112288</v>
       </c>
       <c r="O21" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
@@ -5858,25 +5858,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S21" t="n">
-        <v>1618.205927777329</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T21" t="n">
-        <v>1417.302918882823</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U21" t="n">
-        <v>1189.100251420301</v>
+        <v>1105.675926710251</v>
       </c>
       <c r="V21" t="n">
-        <v>953.9481431885583</v>
+        <v>870.5238184785085</v>
       </c>
       <c r="W21" t="n">
-        <v>699.7107864603568</v>
+        <v>616.2864617503069</v>
       </c>
       <c r="X21" t="n">
-        <v>491.8592862548239</v>
+        <v>408.4349615447741</v>
       </c>
       <c r="Y21" t="n">
-        <v>491.8592862548239</v>
+        <v>200.6746627798202</v>
       </c>
     </row>
     <row r="22">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>565.6689871128444</v>
+        <v>896.7318744564157</v>
       </c>
       <c r="C23" t="n">
-        <v>565.6689871128444</v>
+        <v>896.7318744564157</v>
       </c>
       <c r="D23" t="n">
-        <v>565.6689871128444</v>
+        <v>896.7318744564157</v>
       </c>
       <c r="E23" t="n">
-        <v>565.6689871128444</v>
+        <v>510.9436218581714</v>
       </c>
       <c r="F23" t="n">
-        <v>155.8290153988017</v>
+        <v>101.1036501441286</v>
       </c>
       <c r="G23" t="n">
-        <v>155.8290153988017</v>
+        <v>101.1036501441286</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J23" t="n">
         <v>70.13987180521508</v>
@@ -5998,43 +5998,43 @@
         <v>519.4894913528326</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941459</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O23" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P23" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q23" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V23" t="n">
-        <v>1291.903400644038</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W23" t="n">
-        <v>939.1347453739243</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X23" t="n">
-        <v>565.6689871128444</v>
+        <v>896.7318744564157</v>
       </c>
       <c r="Y23" t="n">
-        <v>565.6689871128444</v>
+        <v>896.7318744564157</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>286.2477316137459</v>
+        <v>858.1430395686789</v>
       </c>
       <c r="C24" t="n">
-        <v>111.7947023326189</v>
+        <v>683.6900102875519</v>
       </c>
       <c r="D24" t="n">
-        <v>111.7947023326189</v>
+        <v>534.7556006263006</v>
       </c>
       <c r="E24" t="n">
-        <v>111.7947023326189</v>
+        <v>375.5181456208451</v>
       </c>
       <c r="F24" t="n">
-        <v>111.7947023326189</v>
+        <v>228.9835876477301</v>
       </c>
       <c r="G24" t="n">
-        <v>111.7947023326189</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H24" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K24" t="n">
-        <v>61.20822116384403</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9399761455072</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M24" t="n">
-        <v>758.3581127497703</v>
+        <v>656.0248753321105</v>
       </c>
       <c r="N24" t="n">
-        <v>1160.042269026703</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O24" t="n">
-        <v>1483.055776201262</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P24" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q24" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S24" t="n">
-        <v>1620.354671901205</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T24" t="n">
-        <v>1419.451663006699</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="U24" t="n">
-        <v>1191.248995544177</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V24" t="n">
-        <v>956.0968873124343</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="W24" t="n">
-        <v>701.8595305842327</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="X24" t="n">
-        <v>494.0080303786999</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="Y24" t="n">
-        <v>286.2477316137459</v>
+        <v>1026.358376588747</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
@@ -6180,19 +6180,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U25" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V25" t="n">
-        <v>72.05002336285366</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W25" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X25" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y25" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>787.2100952984081</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C26" t="n">
-        <v>418.2475783579964</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D26" t="n">
-        <v>418.2475783579964</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975219</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975219</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L26" t="n">
         <v>519.4894913528326</v>
@@ -6250,28 +6250,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1547.27569362361</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S26" t="n">
-        <v>1547.27569362361</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1547.27569362361</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U26" t="n">
-        <v>1547.27569362361</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V26" t="n">
-        <v>1547.27569362361</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W26" t="n">
-        <v>1547.27569362361</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X26" t="n">
-        <v>1173.80993536253</v>
+        <v>1604.826722111973</v>
       </c>
       <c r="Y26" t="n">
-        <v>1173.80993536253</v>
+        <v>1214.687390136161</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>724.8223139276256</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C27" t="n">
-        <v>550.3692846464986</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D27" t="n">
-        <v>550.3692846464986</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E27" t="n">
-        <v>396.7416335465637</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F27" t="n">
-        <v>250.2070755734487</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G27" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H27" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I27" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K27" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L27" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M27" t="n">
-        <v>729.6092173456784</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N27" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O27" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P27" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
@@ -6332,25 +6332,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T27" t="n">
-        <v>1422.063279093103</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U27" t="n">
-        <v>1422.063279093103</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V27" t="n">
-        <v>1186.91117086136</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W27" t="n">
-        <v>932.6738141331584</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X27" t="n">
-        <v>724.8223139276256</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y27" t="n">
-        <v>724.8223139276256</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C28" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D28" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E28" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L28" t="n">
         <v>107.0302722280248</v>
@@ -6417,19 +6417,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V28" t="n">
-        <v>179.3492732576626</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W28" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X28" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y28" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1088.658125761969</v>
+        <v>404.8265831482839</v>
       </c>
       <c r="C29" t="n">
-        <v>1088.658125761969</v>
+        <v>404.8265831482839</v>
       </c>
       <c r="D29" t="n">
-        <v>1088.658125761969</v>
+        <v>404.8265831482839</v>
       </c>
       <c r="E29" t="n">
-        <v>702.8698731637244</v>
+        <v>404.8265831482839</v>
       </c>
       <c r="F29" t="n">
-        <v>293.0299014496816</v>
+        <v>404.8265831482839</v>
       </c>
       <c r="G29" t="n">
-        <v>293.0299014496816</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H29" t="n">
         <v>32.45932575975218</v>
@@ -6499,16 +6499,16 @@
         <v>1088.658125761969</v>
       </c>
       <c r="V29" t="n">
-        <v>1088.658125761969</v>
+        <v>757.595238418398</v>
       </c>
       <c r="W29" t="n">
-        <v>1088.658125761969</v>
+        <v>404.8265831482839</v>
       </c>
       <c r="X29" t="n">
-        <v>1088.658125761969</v>
+        <v>404.8265831482839</v>
       </c>
       <c r="Y29" t="n">
-        <v>1088.658125761969</v>
+        <v>404.8265831482839</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>181.3937354210034</v>
+        <v>353.4469130139942</v>
       </c>
       <c r="C30" t="n">
-        <v>181.3937354210034</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="D30" t="n">
-        <v>32.45932575975218</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="E30" t="n">
-        <v>32.45932575975218</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F30" t="n">
         <v>32.45932575975218</v>
@@ -6545,22 +6545,22 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K30" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M30" t="n">
-        <v>758.3581127497703</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N30" t="n">
-        <v>1160.042269026703</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O30" t="n">
-        <v>1483.055776201262</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P30" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
@@ -6572,22 +6572,22 @@
         <v>1455.464052945775</v>
       </c>
       <c r="T30" t="n">
-        <v>1254.610336371502</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U30" t="n">
-        <v>1254.610336371502</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V30" t="n">
-        <v>1019.45822813976</v>
+        <v>983.6599055272177</v>
       </c>
       <c r="W30" t="n">
-        <v>765.2208714115582</v>
+        <v>729.4225487990161</v>
       </c>
       <c r="X30" t="n">
-        <v>557.3693712060253</v>
+        <v>729.4225487990161</v>
       </c>
       <c r="Y30" t="n">
-        <v>349.6090724410715</v>
+        <v>521.6622500340623</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="C31" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="D31" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="E31" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="F31" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="G31" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="H31" t="n">
         <v>32.45932575975218</v>
@@ -6654,19 +6654,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U31" t="n">
-        <v>287.1438139656391</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V31" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W31" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="X31" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>32.45932575975218</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="C32" t="n">
-        <v>32.45932575975218</v>
+        <v>1031.259851427965</v>
       </c>
       <c r="D32" t="n">
-        <v>32.45932575975218</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E32" t="n">
-        <v>32.45932575975218</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J32" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K32" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L32" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6724,28 +6724,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S32" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T32" t="n">
-        <v>1089.756626634517</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U32" t="n">
-        <v>1089.756626634517</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V32" t="n">
-        <v>758.6937392909463</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="W32" t="n">
-        <v>405.9250840208321</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="X32" t="n">
-        <v>32.45932575975218</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="Y32" t="n">
-        <v>32.45932575975218</v>
+        <v>1400.222368368377</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>512.6843680194497</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C33" t="n">
-        <v>338.2313387383227</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D33" t="n">
-        <v>338.2313387383227</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E33" t="n">
-        <v>178.9938837328672</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K33" t="n">
-        <v>32.45932575975218</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L33" t="n">
-        <v>330.1910807414154</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M33" t="n">
-        <v>729.6092173456784</v>
+        <v>905.3665017627701</v>
       </c>
       <c r="N33" t="n">
-        <v>1131.293373622612</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O33" t="n">
-        <v>1454.30688079717</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
         <v>1622.966287987609</v>
@@ -6803,28 +6803,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1417.685631949881</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T33" t="n">
-        <v>1417.685631949881</v>
+        <v>1508.3316234539</v>
       </c>
       <c r="U33" t="n">
-        <v>1417.685631949881</v>
+        <v>1280.128955991378</v>
       </c>
       <c r="V33" t="n">
-        <v>1182.533523718138</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="W33" t="n">
-        <v>928.2961669899364</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X33" t="n">
-        <v>720.4446667844036</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y33" t="n">
-        <v>512.6843680194497</v>
+        <v>375.1276920609473</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="C34" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="D34" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="E34" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="F34" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="G34" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H34" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I34" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J34" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K34" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L34" t="n">
         <v>107.0302722280248</v>
@@ -6894,16 +6894,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V34" t="n">
-        <v>321.8764957967128</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W34" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X34" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="Y34" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598952</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>169.8529800879398</v>
+        <v>846.2271159476761</v>
       </c>
       <c r="C35" t="n">
-        <v>32.45932575975219</v>
+        <v>846.2271159476761</v>
       </c>
       <c r="D35" t="n">
-        <v>32.45932575975219</v>
+        <v>846.2271159476761</v>
       </c>
       <c r="E35" t="n">
-        <v>32.45932575975219</v>
+        <v>846.2271159476761</v>
       </c>
       <c r="F35" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G35" t="n">
         <v>32.45932575975219</v>
@@ -6940,13 +6940,13 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011318</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941459</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6961,28 +6961,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R35" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S35" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T35" t="n">
-        <v>1286.226725594945</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U35" t="n">
-        <v>1286.226725594945</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V35" t="n">
-        <v>1286.226725594945</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W35" t="n">
-        <v>933.4580703248314</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X35" t="n">
-        <v>559.9923120637516</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Y35" t="n">
-        <v>169.8529800879398</v>
+        <v>1232.826956011798</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>602.1528442473607</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C36" t="n">
-        <v>427.6998149662337</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D36" t="n">
-        <v>427.6998149662337</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E36" t="n">
-        <v>427.6998149662337</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F36" t="n">
-        <v>281.1652569931187</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G36" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H36" t="n">
         <v>32.45932575975219</v>
@@ -7016,52 +7016,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J36" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K36" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L36" t="n">
-        <v>330.1910807414154</v>
+        <v>147.3709770270846</v>
       </c>
       <c r="M36" t="n">
-        <v>729.6092173456784</v>
+        <v>546.7891136313476</v>
       </c>
       <c r="N36" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O36" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.96628798761</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.96628798761</v>
       </c>
       <c r="R36" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S36" t="n">
-        <v>1507.154108177792</v>
+        <v>1508.3316234539</v>
       </c>
       <c r="T36" t="n">
-        <v>1507.154108177792</v>
+        <v>1508.3316234539</v>
       </c>
       <c r="U36" t="n">
-        <v>1507.154108177792</v>
+        <v>1280.128955991378</v>
       </c>
       <c r="V36" t="n">
-        <v>1272.001999946049</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="W36" t="n">
-        <v>1017.764643217847</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X36" t="n">
-        <v>809.9131430123145</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y36" t="n">
-        <v>602.1528442473607</v>
+        <v>375.1276920609473</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C37" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G37" t="n">
         <v>32.45932575975219</v>
@@ -7122,25 +7122,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S37" t="n">
-        <v>261.5666648398646</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T37" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U37" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V37" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W37" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X37" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y37" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>482.052587424109</v>
+        <v>552.534905309803</v>
       </c>
       <c r="C38" t="n">
-        <v>482.052587424109</v>
+        <v>552.534905309803</v>
       </c>
       <c r="D38" t="n">
-        <v>123.7868888173585</v>
+        <v>552.534905309803</v>
       </c>
       <c r="E38" t="n">
-        <v>123.7868888173585</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F38" t="n">
-        <v>123.7868888173585</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G38" t="n">
-        <v>123.7868888173585</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H38" t="n">
         <v>32.45932575975219</v>
@@ -7189,37 +7189,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O38" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P38" t="n">
-        <v>1569.862809315274</v>
+        <v>1569.862809315275</v>
       </c>
       <c r="Q38" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R38" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S38" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T38" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U38" t="n">
-        <v>834.8212426942232</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V38" t="n">
-        <v>834.8212426942232</v>
+        <v>1291.903400644039</v>
       </c>
       <c r="W38" t="n">
-        <v>482.052587424109</v>
+        <v>939.1347453739247</v>
       </c>
       <c r="X38" t="n">
-        <v>482.052587424109</v>
+        <v>939.1347453739247</v>
       </c>
       <c r="Y38" t="n">
-        <v>482.052587424109</v>
+        <v>939.1347453739247</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>735.8716796329404</v>
+        <v>355.8467647021305</v>
       </c>
       <c r="C39" t="n">
-        <v>735.8716796329404</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D39" t="n">
-        <v>586.9372699716891</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E39" t="n">
-        <v>427.6998149662337</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F39" t="n">
-        <v>281.1652569931187</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G39" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H39" t="n">
         <v>32.45932575975219</v>
@@ -7265,40 +7265,40 @@
         <v>934.1153971668621</v>
       </c>
       <c r="N39" t="n">
-        <v>948.4732699082808</v>
+        <v>1190.717019112289</v>
       </c>
       <c r="O39" t="n">
-        <v>1271.486777082839</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q39" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R39" t="n">
-        <v>1622.966287987609</v>
+        <v>1603.218583303222</v>
       </c>
       <c r="S39" t="n">
-        <v>1455.464052945775</v>
+        <v>1435.716348261388</v>
       </c>
       <c r="T39" t="n">
-        <v>1455.464052945775</v>
+        <v>1234.813339366882</v>
       </c>
       <c r="U39" t="n">
-        <v>1227.261385483253</v>
+        <v>1006.61067190436</v>
       </c>
       <c r="V39" t="n">
-        <v>992.1092772515108</v>
+        <v>771.4585636726172</v>
       </c>
       <c r="W39" t="n">
-        <v>992.1092772515108</v>
+        <v>771.4585636726172</v>
       </c>
       <c r="X39" t="n">
-        <v>992.1092772515108</v>
+        <v>563.6070634670843</v>
       </c>
       <c r="Y39" t="n">
-        <v>784.3489784865569</v>
+        <v>355.8467647021305</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>201.8802040902677</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="C40" t="n">
-        <v>201.8802040902677</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="D40" t="n">
-        <v>201.8802040902677</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="E40" t="n">
-        <v>201.8802040902677</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="F40" t="n">
-        <v>201.8802040902677</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="G40" t="n">
         <v>32.45932575975219</v>
@@ -7335,7 +7335,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L40" t="n">
         <v>107.0302722280248</v>
@@ -7365,19 +7365,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U40" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V40" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W40" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X40" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y40" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.7250243665027</v>
+        <v>1232.826956011798</v>
       </c>
       <c r="C41" t="n">
-        <v>390.7250243665027</v>
+        <v>1232.826956011798</v>
       </c>
       <c r="D41" t="n">
-        <v>32.45932575975219</v>
+        <v>1232.826956011798</v>
       </c>
       <c r="E41" t="n">
-        <v>32.45932575975219</v>
+        <v>847.0387034135533</v>
       </c>
       <c r="F41" t="n">
-        <v>32.45932575975219</v>
+        <v>437.1987316995105</v>
       </c>
       <c r="G41" t="n">
         <v>32.45932575975219</v>
@@ -7417,46 +7417,46 @@
         <v>247.358046901132</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941459</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P41" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q41" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T41" t="n">
-        <v>1286.226725594945</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U41" t="n">
-        <v>1032.3898425272</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V41" t="n">
-        <v>701.3269551836289</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W41" t="n">
-        <v>390.7250243665027</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X41" t="n">
-        <v>390.7250243665027</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y41" t="n">
-        <v>390.7250243665027</v>
+        <v>1232.826956011798</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>121.357112658316</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C42" t="n">
         <v>32.45932575975219</v>
@@ -7490,52 +7490,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J42" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K42" t="n">
-        <v>91.88297124942903</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L42" t="n">
-        <v>389.6147262310922</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M42" t="n">
-        <v>789.0328628353552</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N42" t="n">
-        <v>1190.717019112289</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O42" t="n">
-        <v>1513.730526286847</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
         <v>1455.464052945775</v>
       </c>
       <c r="T42" t="n">
-        <v>1254.561044051269</v>
+        <v>1300.480123248367</v>
       </c>
       <c r="U42" t="n">
-        <v>1026.358376588747</v>
+        <v>1072.277455785845</v>
       </c>
       <c r="V42" t="n">
-        <v>791.2062683570043</v>
+        <v>837.1253475541027</v>
       </c>
       <c r="W42" t="n">
-        <v>536.9689116288027</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="X42" t="n">
-        <v>329.1174114232699</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y42" t="n">
-        <v>121.357112658316</v>
+        <v>375.1276920609473</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C43" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D43" t="n">
-        <v>32.45932575975219</v>
+        <v>211.1299621906144</v>
       </c>
       <c r="E43" t="n">
-        <v>32.45932575975219</v>
+        <v>211.1299621906144</v>
       </c>
       <c r="F43" t="n">
-        <v>32.45932575975219</v>
+        <v>64.24001469270405</v>
       </c>
       <c r="G43" t="n">
-        <v>32.45932575975219</v>
+        <v>64.24001469270405</v>
       </c>
       <c r="H43" t="n">
         <v>32.45932575975219</v>
@@ -7572,7 +7572,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K43" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L43" t="n">
         <v>107.0302722280248</v>
@@ -7596,25 +7596,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S43" t="n">
-        <v>139.6199360758255</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T43" t="n">
-        <v>139.6199360758255</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U43" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V43" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W43" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X43" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>631.9553272824514</v>
+        <v>642.2505105513878</v>
       </c>
       <c r="C44" t="n">
-        <v>631.9553272824514</v>
+        <v>642.2505105513878</v>
       </c>
       <c r="D44" t="n">
-        <v>631.9553272824514</v>
+        <v>642.2505105513878</v>
       </c>
       <c r="E44" t="n">
         <v>631.9553272824514</v>
@@ -7648,16 +7648,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521474</v>
       </c>
       <c r="K44" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011316</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528323</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7672,28 +7672,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S44" t="n">
-        <v>1498.675461945241</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T44" t="n">
-        <v>1275.931542326009</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U44" t="n">
-        <v>1022.094659258263</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="V44" t="n">
-        <v>1022.094659258263</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="W44" t="n">
-        <v>1022.094659258263</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="X44" t="n">
-        <v>1022.094659258263</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="Y44" t="n">
-        <v>631.9553272824514</v>
+        <v>642.2505105513878</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>409.4445305789042</v>
+        <v>321.5470195745886</v>
       </c>
       <c r="C45" t="n">
-        <v>409.4445305789042</v>
+        <v>321.5470195745886</v>
       </c>
       <c r="D45" t="n">
-        <v>409.4445305789042</v>
+        <v>321.5470195745886</v>
       </c>
       <c r="E45" t="n">
-        <v>250.2070755734487</v>
+        <v>162.3095645691331</v>
       </c>
       <c r="F45" t="n">
-        <v>250.2070755734487</v>
+        <v>162.3095645691331</v>
       </c>
       <c r="G45" t="n">
-        <v>111.7947023326189</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H45" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J45" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K45" t="n">
-        <v>236.9655055809358</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L45" t="n">
-        <v>534.697260562599</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M45" t="n">
-        <v>934.1153971668621</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N45" t="n">
-        <v>1335.799553443796</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O45" t="n">
-        <v>1335.799553443796</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P45" t="n">
-        <v>1578.043302647803</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1422.377342926487</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T45" t="n">
-        <v>1221.474334031981</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U45" t="n">
-        <v>993.2716665694588</v>
+        <v>1394.763620525088</v>
       </c>
       <c r="V45" t="n">
-        <v>993.2716665694588</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W45" t="n">
-        <v>993.2716665694588</v>
+        <v>905.3741555651434</v>
       </c>
       <c r="X45" t="n">
-        <v>785.420166363926</v>
+        <v>697.5226553596106</v>
       </c>
       <c r="Y45" t="n">
-        <v>577.6598675989721</v>
+        <v>489.7623565946566</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C46" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D46" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E46" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F46" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G46" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H46" t="n">
         <v>32.45932575975219</v>
@@ -7836,22 +7836,22 @@
         <v>194.1667418687506</v>
       </c>
       <c r="T46" t="n">
-        <v>193.9514651575251</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="U46" t="n">
-        <v>193.9514651575251</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="V46" t="n">
-        <v>193.9514651575251</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="W46" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X46" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y46" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8063,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,13 +8306,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133072</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8780,16 +8780,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304797</v>
+        <v>174.18790452568</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>244.1351504444137</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275543</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>228.2563757694028</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,13 +9017,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304796</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>73.77211287831322</v>
+        <v>215.0958621574522</v>
       </c>
       <c r="Q15" t="n">
         <v>99.73813450275541</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L18" t="n">
-        <v>89.94082829865957</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304797</v>
+        <v>380.7598033349565</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9491,16 +9491,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304797</v>
+        <v>308.5394070542101</v>
       </c>
       <c r="O21" t="n">
-        <v>357.6534580335538</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>73.77211287831322</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K24" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>213.8448350321619</v>
       </c>
       <c r="N24" t="n">
         <v>455.0874215304797</v>
@@ -9734,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>99.73813450275541</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>74.46639351210649</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>244.1351504444136</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>74.46639351210649</v>
       </c>
       <c r="N30" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,7 +10430,7 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,13 +10439,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>455.0874215304797</v>
+        <v>203.2271928126416</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>244.1351504444136</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>99.73813450275541</v>
@@ -10664,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>86.93262649026374</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>157.1342855878808</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>380.7598033349567</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10913,13 +10913,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>63.84875129258623</v>
+        <v>308.5394070542103</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831321</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>146.9565108232707</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11153,13 +11153,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>290.4954127942444</v>
       </c>
       <c r="P42" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720734</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,16 +11387,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>455.0874215304797</v>
+        <v>380.7598033349562</v>
       </c>
       <c r="O45" t="n">
-        <v>67.58604940343852</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>145.1148873712466</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>199.4983754516853</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>381.8784719344582</v>
       </c>
       <c r="G11" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>22.88725768527388</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>139.8694874517618</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.7266695472104</v>
+        <v>67.9369218514816</v>
       </c>
       <c r="H13" t="n">
         <v>159.8772180037952</v>
@@ -23469,7 +23469,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
-        <v>187.8398609411364</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U13" t="n">
         <v>286.3046124576955</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23500,22 +23500,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>288.8533587289976</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>220.5164804230398</v>
@@ -23554,16 +23554,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>345.4027352237215</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23579,22 +23579,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>6.730136774208091</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23633,16 +23633,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>108.2917628467267</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>128.5318789201399</v>
+        <v>128.7502647990354</v>
       </c>
       <c r="H16" t="n">
         <v>159.8772180037952</v>
@@ -23709,13 +23709,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G17" t="n">
         <v>8.971932133631583</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>39.22858430196612</v>
       </c>
       <c r="T17" t="n">
-        <v>154.6867975313544</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2985142370684</v>
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>92.99586258783611</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>201.9392287371815</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23940,13 +23940,13 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>180.2156082447829</v>
       </c>
       <c r="T19" t="n">
-        <v>120.7272614763987</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23977,19 +23977,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>355.2994496054137</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G20" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>331.2827985005329</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24059,10 +24059,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
         <v>109.1906224126114</v>
@@ -24098,13 +24098,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>161.1144560832388</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>78.52437462028965</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24214,16 +24214,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.134473744809156</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G23" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
-        <v>211.3043229730616</v>
+        <v>265.482434575188</v>
       </c>
       <c r="I23" t="n">
         <v>187.7594695105699</v>
@@ -24265,7 +24265,7 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>51.6598526519347</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>163.2417127658761</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24344,16 +24344,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.6371895548668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24420,13 +24420,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>213.161238575653</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H26" t="n">
         <v>333.4403157157206</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.92199792533775</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
         <v>195.5929138346465</v>
@@ -24508,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>351.7729304615889</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24530,19 +24530,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>5.55370586646535</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,13 +24572,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>84.69968995873808</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.7266695472104</v>
@@ -24657,13 +24657,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095205</v>
       </c>
       <c r="V28" t="n">
-        <v>72.05928826199332</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24688,16 +24688,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.7135041305339</v>
+        <v>46.06991931588755</v>
       </c>
       <c r="H29" t="n">
-        <v>75.47544578269043</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
         <v>187.7594695105699</v>
@@ -24739,10 +24739,10 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24761,16 +24761,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.0282495084215</v>
@@ -24812,19 +24812,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0.04879939703187119</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>190.5291007985117</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>147.5019580580808</v>
@@ -24894,13 +24894,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>212.9428526967575</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>120.9008132556202</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,16 +24919,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>153.542463278316</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G32" t="n">
         <v>414.7135041305339</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>1.08751586382283</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25004,10 +25004,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.0282495084215</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>43.18294771234017</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>85.40566091718938</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7266695472104</v>
+        <v>128.7502647990354</v>
       </c>
       <c r="H34" t="n">
         <v>159.8772180037952</v>
@@ -25134,7 +25134,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>213.161238575653</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>229.2531739861018</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25165,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>6.987505452569224</v>
       </c>
       <c r="G35" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
         <v>251.2985142370684</v>
@@ -25216,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25244,13 +25244,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
         <v>78.54202280713804</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>131.7567391779716</v>
+        <v>52.33889480304325</v>
       </c>
       <c r="T36" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>9.474087561072281</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>159.8772180037952</v>
@@ -25362,10 +25362,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
-        <v>120.7272614763987</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
         <v>286.3046124576955</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>272.797118314614</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G38" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
-        <v>243.0260282886903</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
         <v>187.7594695105699</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25469,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>118.540657784787</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
         <v>78.54202280713804</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>61.03335686073224</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>22.05924664438177</v>
       </c>
       <c r="H40" t="n">
         <v>159.8772180037952</v>
@@ -25572,7 +25572,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J40" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R40" t="n">
         <v>165.4090611368575</v>
@@ -25605,7 +25605,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
-        <v>128.5318789201399</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25633,16 +25633,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G41" t="n">
-        <v>414.7135041305339</v>
+        <v>14.0214922501732</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>41.74505720845804</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>84.69968995873758</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>45.45988840512771</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25791,25 +25791,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>159.8772180037952</v>
+        <v>128.4143359601729</v>
       </c>
       <c r="I43" t="n">
         <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R43" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
-        <v>180.2156082447829</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25873,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>371.7381386360148</v>
       </c>
       <c r="F44" t="n">
         <v>1.1344737448091</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>72.54499605270217</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>117.6671354997457</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,22 +25991,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>47.82774157918047</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I46" t="n">
         <v>147.5019580580808</v>
@@ -26076,7 +26076,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
-        <v>226.6031417451981</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
         <v>286.3046124576955</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>126.4326563886826</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>474252.9486281897</v>
+        <v>474252.9486281896</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>474252.9486281899</v>
+        <v>474252.9486281896</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>474252.94862819</v>
+        <v>474252.9486281899</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>474252.94862819</v>
+        <v>474252.9486281901</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>474252.9486281899</v>
+        <v>474252.9486281897</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>474252.9486281899</v>
+        <v>474252.9486281897</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>474252.9486281897</v>
+        <v>474252.9486281896</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>474252.9486281899</v>
+        <v>474252.9486281901</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>474252.9486281899</v>
+        <v>474252.9486281901</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
+        <v>299080.4558904491</v>
+      </c>
+      <c r="F2" t="n">
+        <v>299080.4558904492</v>
+      </c>
+      <c r="G2" t="n">
+        <v>299080.4558904491</v>
+      </c>
+      <c r="H2" t="n">
+        <v>299080.4558904494</v>
+      </c>
+      <c r="I2" t="n">
         <v>299080.4558904493</v>
       </c>
-      <c r="F2" t="n">
-        <v>299080.4558904491</v>
-      </c>
-      <c r="G2" t="n">
-        <v>299080.4558904492</v>
-      </c>
-      <c r="H2" t="n">
-        <v>299080.4558904492</v>
-      </c>
-      <c r="I2" t="n">
-        <v>299080.4558904492</v>
-      </c>
       <c r="J2" t="n">
-        <v>299080.4558904495</v>
+        <v>299080.4558904494</v>
       </c>
       <c r="K2" t="n">
         <v>299080.4558904491</v>
       </c>
       <c r="L2" t="n">
-        <v>299080.4558904494</v>
+        <v>299080.4558904493</v>
       </c>
       <c r="M2" t="n">
-        <v>299080.4558904493</v>
+        <v>299080.4558904492</v>
       </c>
       <c r="N2" t="n">
-        <v>299080.4558904492</v>
+        <v>299080.4558904496</v>
       </c>
       <c r="O2" t="n">
         <v>299080.4558904492</v>
       </c>
       <c r="P2" t="n">
-        <v>299080.4558904492</v>
+        <v>299080.4558904493</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244791</v>
+        <v>41050.69786244789</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26459,7 +26459,7 @@
         <v>25938.22349556464</v>
       </c>
       <c r="P4" t="n">
-        <v>25938.22349556463</v>
+        <v>25938.22349556464</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="G5" t="n">
         <v>27864.35291375757</v>
@@ -26490,22 +26490,22 @@
         <v>27864.35291375756</v>
       </c>
       <c r="I5" t="n">
+        <v>27864.35291375757</v>
+      </c>
+      <c r="J5" t="n">
         <v>27864.35291375756</v>
-      </c>
-      <c r="J5" t="n">
-        <v>27864.35291375757</v>
       </c>
       <c r="K5" t="n">
         <v>27864.35291375756</v>
       </c>
       <c r="L5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="M5" t="n">
         <v>27864.35291375757</v>
       </c>
       <c r="N5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375758</v>
       </c>
       <c r="O5" t="n">
         <v>27864.35291375757</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>141450.7427626102</v>
+        <v>141450.7427626101</v>
       </c>
       <c r="C6" t="n">
-        <v>222220.1742941579</v>
+        <v>222220.1742941581</v>
       </c>
       <c r="D6" t="n">
         <v>222220.1742941581</v>
       </c>
       <c r="E6" t="n">
-        <v>68493.1099625036</v>
+        <v>77353.24941654249</v>
       </c>
       <c r="F6" t="n">
-        <v>235433.2800877501</v>
+        <v>244293.4195417893</v>
       </c>
       <c r="G6" t="n">
-        <v>235433.2800877502</v>
+        <v>244293.4195417892</v>
       </c>
       <c r="H6" t="n">
-        <v>235433.2800877502</v>
+        <v>244293.4195417895</v>
       </c>
       <c r="I6" t="n">
-        <v>235433.2800877503</v>
+        <v>244293.4195417894</v>
       </c>
       <c r="J6" t="n">
-        <v>172373.3374886443</v>
+        <v>181233.4769426833</v>
       </c>
       <c r="K6" t="n">
-        <v>235433.2800877501</v>
+        <v>244293.4195417892</v>
       </c>
       <c r="L6" t="n">
-        <v>235433.2800877504</v>
+        <v>244293.4195417894</v>
       </c>
       <c r="M6" t="n">
-        <v>194382.5822253025</v>
+        <v>203242.7216793414</v>
       </c>
       <c r="N6" t="n">
-        <v>235433.2800877502</v>
+        <v>244293.4195417897</v>
       </c>
       <c r="O6" t="n">
-        <v>235433.2800877502</v>
+        <v>244293.4195417893</v>
       </c>
       <c r="P6" t="n">
-        <v>235433.2800877503</v>
+        <v>244293.4195417895</v>
       </c>
     </row>
   </sheetData>
@@ -26773,10 +26773,10 @@
         <v>146.571804419537</v>
       </c>
       <c r="N3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="O3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="P3" t="n">
         <v>146.5718044195371</v>
@@ -26810,7 +26810,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="I4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="J4" t="n">
         <v>405.7415719969023</v>
@@ -26825,10 +26825,10 @@
         <v>405.7415719969024</v>
       </c>
       <c r="N4" t="n">
+        <v>405.7415719969024</v>
+      </c>
+      <c r="O4" t="n">
         <v>405.7415719969023</v>
-      </c>
-      <c r="O4" t="n">
-        <v>405.7415719969024</v>
       </c>
       <c r="P4" t="n">
         <v>405.7415719969023</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,31 +27378,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>182.4696517789847</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>181.0743548999748</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27463,10 +27463,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>121.1367268416887</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27475,10 +27475,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>36.99766411945026</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27557,13 +27557,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>152.5379588693787</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>268.4601236753789</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>282.4866342203437</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27709,7 +27709,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27718,7 +27718,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>87.28582189465749</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>45.23847370169204</v>
       </c>
     </row>
     <row r="7">
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.8756670037568</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,13 +27815,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27861,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>224.9573404408503</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>301.5209461972391</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27940,22 +27940,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>78.57751425065946</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>216.6925153309472</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>15.96843579630763</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>201.982606264288</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I11" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L11" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H12" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K12" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O12" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H13" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J13" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L13" t="n">
         <v>39.29566048323129</v>
@@ -31934,7 +31934,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P13" t="n">
         <v>31.96707026225442</v>
@@ -31943,16 +31943,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S13" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33885,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H38" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I38" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J38" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K38" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L38" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M38" t="n">
         <v>103.4642265438474</v>
@@ -33909,16 +33909,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O38" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P38" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R38" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S38" t="n">
         <v>13.4271557515988</v>
@@ -33927,7 +33927,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H39" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I39" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J39" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L39" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M39" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N39" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O39" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P39" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R39" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S39" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T39" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,40 +34046,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H40" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I40" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J40" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K40" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L40" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M40" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N40" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O40" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P40" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R40" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S40" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T40" t="n">
         <v>1.129323738970203</v>
@@ -34122,22 +34122,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H41" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I41" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J41" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K41" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L41" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M41" t="n">
         <v>103.4642265438474</v>
@@ -34146,16 +34146,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O41" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P41" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q41" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R41" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S41" t="n">
         <v>13.4271557515988</v>
@@ -34164,7 +34164,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H42" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I42" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J42" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K42" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L42" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M42" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N42" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O42" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P42" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R42" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S42" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T42" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,40 +34283,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H43" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I43" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J43" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K43" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L43" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M43" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N43" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O43" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P43" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R43" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S43" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T43" t="n">
         <v>1.129323738970203</v>
@@ -34710,7 +34710,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34783,19 +34783,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35026,13 +35026,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35430,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>405.7415719969023</v>
+        <v>124.8420549921026</v>
       </c>
       <c r="O12" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P13" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K15" t="n">
-        <v>141.323749279139</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>300.7391464461244</v>
@@ -35743,7 +35743,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>141.323749279139</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>19.83962944132484</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N18" t="n">
-        <v>405.7415719969023</v>
+        <v>331.4139538013791</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
@@ -36211,16 +36211,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N21" t="n">
-        <v>405.7415719969023</v>
+        <v>259.1935575206327</v>
       </c>
       <c r="O21" t="n">
-        <v>290.0674086301152</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L24" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>403.4526632366293</v>
+        <v>151.5924345187913</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>141.323749279139</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L27" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
-        <v>403.4526632366293</v>
+        <v>12.21399299873585</v>
       </c>
       <c r="N27" t="n">
         <v>405.7415719969023</v>
@@ -36691,10 +36691,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L30" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
-        <v>403.4526632366293</v>
+        <v>12.21399299873585</v>
       </c>
       <c r="N30" t="n">
         <v>405.7415719969023</v>
@@ -36928,10 +36928,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P30" t="n">
-        <v>141.323749279139</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L33" t="n">
         <v>300.7391464461244</v>
@@ -37159,13 +37159,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N33" t="n">
-        <v>405.7415719969023</v>
+        <v>153.8813432790642</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054603</v>
       </c>
       <c r="M36" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N36" t="n">
-        <v>331.4139538013793</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
@@ -37405,7 +37405,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726433</v>
@@ -37563,7 +37563,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37633,13 +37633,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N39" t="n">
-        <v>14.50290175900885</v>
+        <v>259.1935575206329</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>110.3391532330937</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L40" t="n">
         <v>66.88568574354744</v>
@@ -37715,10 +37715,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O40" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P40" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K41" t="n">
         <v>179.0082576726433</v>
@@ -37800,7 +37800,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K42" t="n">
-        <v>60.02388433300691</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>300.7391464461244</v>
@@ -37870,16 +37870,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N42" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O42" t="n">
-        <v>326.276269873291</v>
+        <v>222.9093633908059</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L43" t="n">
         <v>66.88568574354744</v>
@@ -37952,10 +37952,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O43" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P43" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167934</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726433</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461244</v>
@@ -38107,16 +38107,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N45" t="n">
-        <v>405.7415719969023</v>
+        <v>331.4139538013789</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
         <v>244.690655761624</v>
       </c>
       <c r="Q45" t="n">
-        <v>45.37675286849116</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
